--- a/excel/305 Indicativo - Futuro Semplice.xlsx
+++ b/excel/305 Indicativo - Futuro Semplice.xlsx
@@ -31,7 +31,7 @@
     <t>例句</t>
   </si>
   <si>
-    <t>Indicativo - Futuro Semplice</t>
+    <t>305 Indicativo - Futuro Semplice</t>
   </si>
   <si>
     <t>venire</t>
@@ -1565,7 +1565,7 @@
   <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A3" sqref="A3:A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
